--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1707.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1707.xlsx
@@ -354,7 +354,7 @@
         <v>0.9693735889931024</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.587254705896092</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1707.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1707.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2755506936658959</v>
+        <v>0.7751798033714294</v>
       </c>
       <c r="B1">
-        <v>0.9693735889931024</v>
+        <v>2.282429933547974</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.587254705896092</v>
+        <v>0.8840907216072083</v>
       </c>
       <c r="E1">
-        <v>1.74731784088879</v>
+        <v>0.7185125350952148</v>
       </c>
     </row>
   </sheetData>
